--- a/data/refacciones.xlsx
+++ b/data/refacciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -43,67 +43,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Pieza 1</t>
-  </si>
-  <si>
-    <t>Lente</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>Casco</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M-01</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>Cartago</t>
-  </si>
-  <si>
-    <t>2025-11-06 18:43:55</t>
-  </si>
-  <si>
-    <t>2025-11-06 14:45:57</t>
-  </si>
-  <si>
-    <t>2025-11-06 15:09:09</t>
-  </si>
-  <si>
-    <t>2025-11-06 17:31:14</t>
-  </si>
-  <si>
-    <t>2025-11-06 17:32:06</t>
+    <t>2025-11-08 00:53:37</t>
   </si>
 </sst>
 </file>
@@ -461,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,118 +446,23 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/refacciones.xlsx
+++ b/data/refacciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -43,16 +43,31 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>SSD</t>
+  </si>
+  <si>
     <t>M-01</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Cartago</t>
+  </si>
+  <si>
     <t>2025-11-08 00:53:37</t>
+  </si>
+  <si>
+    <t>2025-11-08 21:28:29</t>
   </si>
 </sst>
 </file>
@@ -410,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +462,45 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/refacciones.xlsx
+++ b/data/refacciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -40,27 +40,30 @@
     <t>actualizado_en</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>cxxc</t>
+  </si>
+  <si>
+    <t>M-01</t>
+  </si>
+  <si>
+    <t>cx</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>M-01</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Cartago</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>2025-11-08 21:28:29</t>
+  </si>
+  <si>
+    <t>2025-11-11 00:04:19</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,11 +464,11 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -470,37 +476,60 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/refacciones.xlsx
+++ b/data/refacciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>id_ref</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,22 +446,348 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>id_unico</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>modeloEquipo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>stock</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>umbral</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>actualizado_en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-11-12 21:11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-11-12 22:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-11-12 21:11:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pantalla</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LCD</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-11-12 21:57:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Pantalla</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LCD</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-11-12 21:14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Pantalla</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LCD</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-11-12 21:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Pantalla</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LCD</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-11-12 21:15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-11-12 21:15:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-11-12 22:02:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CAM</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-11-12 21:15:16</t>
         </is>
       </c>
     </row>
